--- a/CZ/data/rawdata/fg.xlsx
+++ b/CZ/data/rawdata/fg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Plocha\Škola\Vejška\Bakalarka\Analyza\data\cz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jezva\Desktop\Bakalarka\Analyza\CZ\data\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED768DE9-EE5C-4493-91FD-E152015F9E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B46F89E-220B-4751-87FE-495A288654E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="2805" windowWidth="19440" windowHeight="14880" xr2:uid="{8D711CE4-0EA1-45D7-931A-4F68ED92B6F6}"/>
+    <workbookView xWindow="51630" yWindow="7365" windowWidth="28770" windowHeight="15450" xr2:uid="{8D711CE4-0EA1-45D7-931A-4F68ED92B6F6}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -640,7 +640,7 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>45194</v>
+        <v>45560</v>
       </c>
       <c r="B58">
         <v>1</v>
